--- a/Fayyt Room Layout.xlsx
+++ b/Fayyt Room Layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\Castle-Fayyt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5D5C5-4C48-44DC-95D9-DD481DB273E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42166DC5-C9E5-4317-AB0A-9DBC0929F8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{4350BC0B-785B-4F63-B983-04D184A421E9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
   <si>
     <t>Room 1</t>
   </si>
@@ -240,7 +240,10 @@
     <t>Automatic treasure drop</t>
   </si>
   <si>
-    <t>Enemy tiles</t>
+    <t>Optional enemy encounters</t>
+  </si>
+  <si>
+    <t>Mandatory enemy encounters</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -511,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,164 +576,155 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,10 +1395,10 @@
       <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="60" t="s">
+      <c r="H16" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="54" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1426,10 +1426,10 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="59" t="s">
+      <c r="B18" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>58</v>
       </c>
       <c r="G18" t="s">
@@ -1478,10 +1478,10 @@
       <c r="G20" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="60" t="s">
+      <c r="H20" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="54" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="61" t="s">
         <v>57</v>
       </c>
       <c r="G24" t="s">
@@ -1598,7 +1598,7 @@
       <c r="G26" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="61" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1654,305 +1654,314 @@
       </c>
     </row>
     <row r="33" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="K33" s="31">
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="K33" s="30">
         <v>41</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="20">
         <v>40</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="68">
         <v>39</v>
       </c>
-      <c r="N33" s="45">
-        <v>58</v>
-      </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="39">
-        <v>56</v>
-      </c>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
+      <c r="N33" s="39">
+        <v>58</v>
+      </c>
+      <c r="O33" s="21"/>
+      <c r="P33" s="68">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
     </row>
     <row r="34" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="69"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="K34" s="22">
+        <v>42</v>
+      </c>
+      <c r="L34" s="21"/>
+      <c r="M34" s="51">
+        <v>38</v>
+      </c>
+      <c r="N34" s="23">
+        <v>54</v>
+      </c>
+      <c r="O34" s="49">
+        <v>53</v>
+      </c>
+      <c r="P34" s="24">
+        <v>52</v>
+      </c>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="63"/>
+      <c r="C35" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="K34" s="23">
-        <v>42</v>
-      </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="57">
-        <v>38</v>
-      </c>
-      <c r="N34" s="24">
-        <v>54</v>
-      </c>
-      <c r="O34" s="55">
-        <v>53</v>
-      </c>
-      <c r="P34" s="25">
-        <v>52</v>
-      </c>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-    </row>
-    <row r="35" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="71"/>
-      <c r="C35" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="K35" s="48">
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="K35" s="42">
         <v>43</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="24">
+      <c r="L35" s="21"/>
+      <c r="M35" s="23">
         <v>37</v>
       </c>
-      <c r="N35" s="68">
+      <c r="N35" s="62">
         <v>55</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="19">
         <v>11</v>
       </c>
-      <c r="P35" s="41">
+      <c r="P35" s="35">
         <v>12</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="33">
         <v>13</v>
       </c>
-      <c r="R35" s="32">
+      <c r="R35" s="31">
         <v>51</v>
       </c>
-      <c r="S35" s="22"/>
+      <c r="S35" s="21"/>
     </row>
     <row r="36" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="65"/>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="K36" s="27">
+        <v>44</v>
+      </c>
+      <c r="L36" s="28">
+        <v>35</v>
+      </c>
+      <c r="M36" s="41">
+        <v>36</v>
+      </c>
+      <c r="N36" s="36">
+        <v>9</v>
+      </c>
+      <c r="O36" s="46">
+        <v>10</v>
+      </c>
+      <c r="P36" s="50">
+        <v>49</v>
+      </c>
+      <c r="Q36" s="45">
+        <v>48</v>
+      </c>
+      <c r="R36" s="29">
+        <v>50</v>
+      </c>
+      <c r="S36" s="21"/>
+    </row>
+    <row r="37" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="59"/>
+      <c r="C37" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="K36" s="28">
-        <v>44</v>
-      </c>
-      <c r="L36" s="29">
-        <v>35</v>
-      </c>
-      <c r="M36" s="47">
-        <v>36</v>
-      </c>
-      <c r="N36" s="42">
-        <v>9</v>
-      </c>
-      <c r="O36" s="52">
-        <v>10</v>
-      </c>
-      <c r="P36" s="56">
-        <v>49</v>
-      </c>
-      <c r="Q36" s="51">
-        <v>48</v>
-      </c>
-      <c r="R36" s="30">
-        <v>50</v>
-      </c>
-      <c r="S36" s="22"/>
-    </row>
-    <row r="37" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="64"/>
-      <c r="C37" s="19" t="s">
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="K37" s="43">
+        <v>57</v>
+      </c>
+      <c r="L37" s="26">
+        <v>34</v>
+      </c>
+      <c r="M37" s="45">
+        <v>7</v>
+      </c>
+      <c r="N37" s="29">
+        <v>8</v>
+      </c>
+      <c r="O37" s="52">
+        <v>45</v>
+      </c>
+      <c r="P37" s="26">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="68">
+        <v>47</v>
+      </c>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+    </row>
+    <row r="38" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="58"/>
+      <c r="C38" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="K37" s="49">
-        <v>57</v>
-      </c>
-      <c r="L37" s="27">
-        <v>34</v>
-      </c>
-      <c r="M37" s="51">
-        <v>7</v>
-      </c>
-      <c r="N37" s="30">
-        <v>8</v>
-      </c>
-      <c r="O37" s="58">
-        <v>45</v>
-      </c>
-      <c r="P37" s="27">
-        <v>46</v>
-      </c>
-      <c r="Q37" s="38">
-        <v>47</v>
-      </c>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-    </row>
-    <row r="38" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="34">
+        <v>6</v>
+      </c>
+      <c r="N38" s="21"/>
+      <c r="O38" s="38">
+        <v>27</v>
+      </c>
+      <c r="P38" s="68">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="48">
+        <v>31</v>
+      </c>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+    </row>
+    <row r="39" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="57"/>
+      <c r="C39" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="36">
-        <v>6</v>
-      </c>
-      <c r="N38" s="22"/>
-      <c r="O38" s="44">
-        <v>27</v>
-      </c>
-      <c r="P38" s="37">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="54">
-        <v>31</v>
-      </c>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-    </row>
-    <row r="39" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="62"/>
-      <c r="C39" s="19" t="s">
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="K39" s="68">
+        <v>14</v>
+      </c>
+      <c r="L39" s="28">
+        <v>4</v>
+      </c>
+      <c r="M39" s="26">
+        <v>5</v>
+      </c>
+      <c r="N39" s="20">
+        <v>25</v>
+      </c>
+      <c r="O39" s="47">
+        <v>26</v>
+      </c>
+      <c r="P39" s="21">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>32</v>
+      </c>
+      <c r="R39" s="32">
+        <v>33</v>
+      </c>
+      <c r="S39" s="21"/>
+    </row>
+    <row r="40" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="56"/>
+      <c r="C40" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="K39" s="35">
-        <v>14</v>
-      </c>
-      <c r="L39" s="29">
-        <v>4</v>
-      </c>
-      <c r="M39" s="27">
-        <v>5</v>
-      </c>
-      <c r="N39" s="21">
-        <v>25</v>
-      </c>
-      <c r="O39" s="53">
-        <v>26</v>
-      </c>
-      <c r="P39" s="22">
-        <v>29</v>
-      </c>
-      <c r="Q39" s="27">
-        <v>32</v>
-      </c>
-      <c r="R39" s="33">
-        <v>33</v>
-      </c>
-      <c r="S39" s="22"/>
-    </row>
-    <row r="40" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="61"/>
-      <c r="C40" s="19" t="s">
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="44">
+        <v>3</v>
+      </c>
+      <c r="M40" s="21">
+        <v>2</v>
+      </c>
+      <c r="N40" s="20">
+        <v>15</v>
+      </c>
+      <c r="O40" s="21">
+        <v>16</v>
+      </c>
+      <c r="P40" s="47">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="68">
+        <v>20</v>
+      </c>
+      <c r="R40" s="19">
+        <v>23</v>
+      </c>
+      <c r="S40" s="60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="55"/>
+      <c r="C41" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="50">
-        <v>3</v>
-      </c>
-      <c r="M40" s="22">
-        <v>2</v>
-      </c>
-      <c r="N40" s="21">
-        <v>15</v>
-      </c>
-      <c r="O40" s="22">
-        <v>16</v>
-      </c>
-      <c r="P40" s="53">
-        <v>28</v>
-      </c>
-      <c r="Q40" s="37">
-        <v>20</v>
-      </c>
-      <c r="R40" s="20">
-        <v>23</v>
-      </c>
-      <c r="S40" s="66">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="26">
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="25">
         <v>1</v>
       </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="46">
+      <c r="N41" s="21"/>
+      <c r="O41" s="40">
         <v>17</v>
       </c>
-      <c r="P41" s="58">
+      <c r="P41" s="52">
         <v>18</v>
       </c>
-      <c r="Q41" s="27">
+      <c r="Q41" s="26">
         <v>19</v>
       </c>
-      <c r="R41" s="25">
+      <c r="R41" s="24">
         <v>21</v>
       </c>
-      <c r="S41" s="22"/>
+      <c r="S41" s="21"/>
     </row>
     <row r="42" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="43">
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="37">
         <v>22</v>
       </c>
-      <c r="S42" s="22"/>
+      <c r="S42" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C40:G40"/>
+  <mergeCells count="9">
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C36:G36"/>
     <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C37:G37"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="0.3" bottom="0.5" header="0.3" footer="0.3"/>
